--- a/ММвЭ/ИД23-1_МасловАН_Семинар_11.xlsx
+++ b/ММвЭ/ИД23-1_МасловАН_Семинар_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ММвЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A6F4989-28DC-425C-943E-D3395632C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC2695-5366-4F64-9216-A4D889323791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B48AAE2A-D938-4DF6-B4BE-71F6FC9EDC83}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>t</t>
   </si>
@@ -127,12 +127,27 @@
   <si>
     <t>I2</t>
   </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +170,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -274,11 +302,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,6 +419,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1953,6 +2089,641 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1135310000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ρ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$126:$J$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$127:$J$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2361662.079717481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2099255.1819710946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1836848.2842247074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574441.3864783207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1312034.488731934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1049627.5909855473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>787220.69323916046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524813.79549277353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262406.89774638676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$128:$J$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3732124.1557140541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3317443.6939680483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2902763.2322220416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2488082.7704760358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2073402.30873003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1658721.8469840242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1244041.3852380181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>829360.92349201185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>414680.46174600592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$129:$J$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5387858.4402291728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4789207.5024259314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4190556.5646226895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3591905.6268194485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2993254.6890162071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2394603.7512129657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1795952.8134097245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1197301.8756064826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>598650.93780324131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$130:$J$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7307931.4116882281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6495939.0326117584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5683946.6535352878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4871954.2744588181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4059961.8953823489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3247969.5163058792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2435977.1372294095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1623984.7581529391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>811992.37907646957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$131:$J$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9478592.2091562431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8425415.2970277723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7372238.3848992996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6319061.4727708278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5265884.560642357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4212707.6485138861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3159530.7363854148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2106353.8242569421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1053176.9121284711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8AE3-4547-A163-71D8C43D182B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1540658832"/>
+        <c:axId val="1540656912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1540658832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540656912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540656912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540658832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,6 +2970,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3748,6 +4559,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4404,6 +5731,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40340</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B11A021-BE05-17EA-47F6-547D8599FD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4729,10 +6092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF55532-882D-4FB5-9FE0-32E97B9219BC}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V126" sqref="V126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5769,7 +7132,7 @@
         <v>1425000</v>
       </c>
       <c r="D43" s="4">
-        <f>B43/C43</f>
+        <f t="shared" ref="D43:D73" si="6">B43/C43</f>
         <v>9.5228070175438599</v>
       </c>
       <c r="E43" s="4">
@@ -5786,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="4">
-        <f>(1-$K$3)*B43+F43</f>
+        <f t="shared" ref="B44:B73" si="7">(1-$K$3)*B43+F43</f>
         <v>16109816.469544455</v>
       </c>
       <c r="C44" s="4">
@@ -5794,7 +7157,7 @@
         <v>1567500.0000000002</v>
       </c>
       <c r="D44" s="4">
-        <f>B44/C44</f>
+        <f t="shared" si="6"/>
         <v>10.277394876902362</v>
       </c>
       <c r="E44" s="4">
@@ -5811,23 +7174,23 @@
         <v>2</v>
       </c>
       <c r="B45" s="4">
-        <f>(1-$K$3)*B44+F44</f>
+        <f t="shared" si="7"/>
         <v>18889219.310984842</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" ref="C45:C73" si="6">(1+$K$2)*C44</f>
+        <f t="shared" ref="C45:C73" si="8">(1+$K$2)*C44</f>
         <v>1724250.0000000005</v>
       </c>
       <c r="D45" s="4">
-        <f>B45/C45</f>
+        <f t="shared" si="6"/>
         <v>10.955035123088205</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ref="E45:E73" si="7">$K$6*B45^$K$8 * C45 ^$K$7</f>
+        <f t="shared" ref="E45:E73" si="9">$K$6*B45^$K$8 * C45 ^$K$7</f>
         <v>21751527.163795091</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" ref="F45:F73" si="8">$K$4*E45</f>
+        <f t="shared" ref="F45:F73" si="10">$K$4*E45</f>
         <v>8700610.8655180372</v>
       </c>
     </row>
@@ -5836,23 +7199,23 @@
         <v>3</v>
       </c>
       <c r="B46" s="4">
-        <f>(1-$K$3)*B45+F45</f>
+        <f t="shared" si="7"/>
         <v>21923064.383207425</v>
       </c>
       <c r="C46" s="4">
+        <f t="shared" si="8"/>
+        <v>1896675.0000000007</v>
+      </c>
+      <c r="D46" s="4">
         <f t="shared" si="6"/>
-        <v>1896675.0000000007</v>
-      </c>
-      <c r="D46" s="4">
-        <f>B46/C46</f>
         <v>11.558682633138211</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24709228.081757937</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9883691.2327031754</v>
       </c>
     </row>
@@ -5861,23 +7224,23 @@
         <v>4</v>
       </c>
       <c r="B47" s="4">
-        <f>(1-$K$3)*B46+F46</f>
+        <f t="shared" si="7"/>
         <v>25229836.300948374</v>
       </c>
       <c r="C47" s="4">
+        <f t="shared" si="8"/>
+        <v>2086342.5000000009</v>
+      </c>
+      <c r="D47" s="4">
         <f t="shared" si="6"/>
-        <v>2086342.5000000009</v>
-      </c>
-      <c r="D47" s="4">
-        <f>B47/C47</f>
         <v>12.092854505407603</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27926991.724057503</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11170796.689623002</v>
       </c>
     </row>
@@ -5886,23 +7249,23 @@
         <v>5</v>
       </c>
       <c r="B48" s="4">
-        <f>(1-$K$3)*B47+F47</f>
+        <f t="shared" si="7"/>
         <v>28831682.100286864</v>
       </c>
       <c r="C48" s="4">
+        <f t="shared" si="8"/>
+        <v>2294976.7500000014</v>
+      </c>
+      <c r="D48" s="4">
         <f t="shared" si="6"/>
-        <v>2294976.7500000014</v>
-      </c>
-      <c r="D48" s="4">
-        <f>B48/C48</f>
         <v>12.562951716302505</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31430736.608854782</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12572294.643541913</v>
       </c>
     </row>
@@ -5911,23 +7274,23 @@
         <v>6</v>
       </c>
       <c r="B49" s="4">
-        <f>(1-$K$3)*B48+F48</f>
+        <f t="shared" si="7"/>
         <v>32754472.113742717</v>
       </c>
       <c r="C49" s="4">
+        <f t="shared" si="8"/>
+        <v>2524474.4250000017</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" si="6"/>
-        <v>2524474.4250000017</v>
-      </c>
-      <c r="D49" s="4">
-        <f>B49/C49</f>
         <v>12.974768842723647</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35249422.607561938</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14099769.043024777</v>
       </c>
     </row>
@@ -5936,23 +7299,23 @@
         <v>7</v>
       </c>
       <c r="B50" s="4">
-        <f>(1-$K$3)*B49+F49</f>
+        <f t="shared" si="7"/>
         <v>37027899.522644676</v>
       </c>
       <c r="C50" s="4">
+        <f t="shared" si="8"/>
+        <v>2776921.867500002</v>
+      </c>
+      <c r="D50" s="4">
         <f t="shared" si="6"/>
-        <v>2776921.867500002</v>
-      </c>
-      <c r="D50" s="4">
-        <f>B50/C50</f>
         <v>13.334152449877903</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39415239.048243776</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15766095.619297512</v>
       </c>
     </row>
@@ -5961,23 +7324,23 @@
         <v>8</v>
       </c>
       <c r="B51" s="4">
-        <f>(1-$K$3)*B50+F50</f>
+        <f t="shared" si="7"/>
         <v>41685625.285148785</v>
       </c>
       <c r="C51" s="4">
+        <f t="shared" si="8"/>
+        <v>3054614.0542500024</v>
+      </c>
+      <c r="D51" s="4">
         <f t="shared" si="6"/>
-        <v>3054614.0542500024</v>
-      </c>
-      <c r="D51" s="4">
-        <f>B51/C51</f>
         <v>13.64677322398552</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43963836.608962104</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17585534.643584844</v>
       </c>
     </row>
@@ -5986,23 +7349,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="4">
-        <f>(1-$K$3)*B51+F51</f>
+        <f t="shared" si="7"/>
         <v>46765472.343188986</v>
       </c>
       <c r="C52" s="4">
+        <f t="shared" si="8"/>
+        <v>3360075.4596750028</v>
+      </c>
+      <c r="D52" s="4">
         <f t="shared" si="6"/>
-        <v>3360075.4596750028</v>
-      </c>
-      <c r="D52" s="4">
-        <f>B52/C52</f>
         <v>13.917982766884732</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48934602.193810962</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19573840.877524387</v>
       </c>
     </row>
@@ -6011,23 +7374,23 @@
         <v>10</v>
       </c>
       <c r="B53" s="4">
-        <f>(1-$K$3)*B52+F52</f>
+        <f t="shared" si="7"/>
         <v>52309671.517756671</v>
       </c>
       <c r="C53" s="4">
+        <f t="shared" si="8"/>
+        <v>3696083.0056425035</v>
+      </c>
+      <c r="D53" s="4">
         <f t="shared" si="6"/>
-        <v>3696083.0056425035</v>
-      </c>
-      <c r="D53" s="4">
-        <f>B53/C53</f>
         <v>14.152731807673105</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54370976.978695609</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21748390.791478246</v>
       </c>
     </row>
@@ -6036,23 +7399,23 @@
         <v>11</v>
       </c>
       <c r="B54" s="4">
-        <f>(1-$K$3)*B53+F53</f>
+        <f t="shared" si="7"/>
         <v>58365160.853907913</v>
       </c>
       <c r="C54" s="4">
+        <f t="shared" si="8"/>
+        <v>4065691.3062067544</v>
+      </c>
+      <c r="D54" s="4">
         <f t="shared" si="6"/>
-        <v>4065691.3062067544</v>
-      </c>
-      <c r="D54" s="4">
-        <f>B54/C54</f>
         <v>14.3555318045929</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60320818.684028655</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24128327.473611463</v>
       </c>
     </row>
@@ -6061,23 +7424,23 @@
         <v>12</v>
       </c>
       <c r="B55" s="4">
-        <f>(1-$K$3)*B54+F54</f>
+        <f t="shared" si="7"/>
         <v>64983940.071346998</v>
       </c>
       <c r="C55" s="4">
+        <f t="shared" si="8"/>
+        <v>4472260.4368274305</v>
+      </c>
+      <c r="D55" s="4">
         <f t="shared" si="6"/>
-        <v>4472260.4368274305</v>
-      </c>
-      <c r="D55" s="4">
-        <f>B55/C55</f>
         <v>14.530446289806379</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>66836809.910882138</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26734723.964352857</v>
       </c>
     </row>
@@ -6086,23 +7449,23 @@
         <v>13</v>
       </c>
       <c r="B56" s="4">
-        <f>(1-$K$3)*B55+F55</f>
+        <f t="shared" si="7"/>
         <v>72223482.014295757</v>
       </c>
       <c r="C56" s="4">
+        <f t="shared" si="8"/>
+        <v>4919486.4805101743</v>
+      </c>
+      <c r="D56" s="4">
         <f t="shared" si="6"/>
-        <v>4919486.4805101743</v>
-      </c>
-      <c r="D56" s="4">
-        <f>B56/C56</f>
         <v>14.681101838663013</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73976915.093900979</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29590766.037560392</v>
       </c>
     </row>
@@ -6111,23 +7474,23 @@
         <v>14</v>
       </c>
       <c r="B57" s="4">
-        <f>(1-$K$3)*B56+F56</f>
+        <f t="shared" si="7"/>
         <v>80147203.447567418</v>
       </c>
       <c r="C57" s="4">
+        <f t="shared" si="8"/>
+        <v>5411435.1285611922</v>
+      </c>
+      <c r="D57" s="4">
         <f t="shared" si="6"/>
-        <v>5411435.1285611922</v>
-      </c>
-      <c r="D57" s="4">
-        <f>B57/C57</f>
         <v>14.810711307349107</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81804889.30181998</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32721955.720727995</v>
       </c>
     </row>
@@ -6136,23 +7499,23 @@
         <v>15</v>
       </c>
       <c r="B58" s="4">
-        <f>(1-$K$3)*B57+F57</f>
+        <f t="shared" si="7"/>
         <v>88824998.134025186</v>
       </c>
       <c r="C58" s="4">
+        <f t="shared" si="8"/>
+        <v>5952578.6414173115</v>
+      </c>
+      <c r="D58" s="4">
         <f t="shared" si="6"/>
-        <v>5952578.6414173115</v>
-      </c>
-      <c r="D58" s="4">
-        <f>B58/C58</f>
         <v>14.922104097204487</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90390842.774243027</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36156337.109697215</v>
       </c>
     </row>
@@ -6161,23 +7524,23 @@
         <v>16</v>
       </c>
       <c r="B59" s="4">
-        <f>(1-$K$3)*B58+F58</f>
+        <f t="shared" si="7"/>
         <v>98333835.803514838</v>
       </c>
       <c r="C59" s="4">
+        <f t="shared" si="8"/>
+        <v>6547836.505559043</v>
+      </c>
+      <c r="D59" s="4">
         <f t="shared" si="6"/>
-        <v>6547836.505559043</v>
-      </c>
-      <c r="D59" s="4">
-        <f>B59/C59</f>
         <v>15.017759792876696</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>99811865.737869501</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39924746.295147799</v>
       </c>
     </row>
@@ -6186,23 +7549,23 @@
         <v>17</v>
       </c>
       <c r="B60" s="4">
-        <f>(1-$K$3)*B59+F59</f>
+        <f t="shared" si="7"/>
         <v>108758431.35760817</v>
       </c>
       <c r="C60" s="4">
+        <f t="shared" si="8"/>
+        <v>7202620.156114948</v>
+      </c>
+      <c r="D60" s="4">
         <f t="shared" si="6"/>
-        <v>7202620.156114948</v>
-      </c>
-      <c r="D60" s="4">
-        <f>B60/C60</f>
         <v>15.099842696171256</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110152718.71075603</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44061087.484302416</v>
       </c>
     </row>
@@ -6211,23 +7574,23 @@
         <v>18</v>
       </c>
       <c r="B61" s="4">
-        <f>(1-$K$3)*B60+F60</f>
+        <f t="shared" si="7"/>
         <v>120191989.43462813</v>
       </c>
       <c r="C61" s="4">
+        <f t="shared" si="8"/>
+        <v>7922882.1717264438</v>
+      </c>
+      <c r="D61" s="4">
         <f t="shared" si="6"/>
-        <v>7922882.1717264438</v>
-      </c>
-      <c r="D61" s="4">
-        <f>B61/C61</f>
         <v>15.170235632626802</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121506594.19192877</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48602637.676771514</v>
       </c>
     </row>
@@ -6236,23 +7599,23 @@
         <v>19</v>
       </c>
       <c r="B62" s="4">
-        <f>(1-$K$3)*B61+F61</f>
+        <f t="shared" si="7"/>
         <v>132737030.28101119</v>
       </c>
       <c r="C62" s="4">
+        <f t="shared" si="8"/>
+        <v>8715170.3888990898</v>
+      </c>
+      <c r="D62" s="4">
         <f t="shared" si="6"/>
-        <v>8715170.3888990898</v>
-      </c>
-      <c r="D62" s="4">
-        <f>B62/C62</f>
         <v>15.230572020724278</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>133975956.35701215</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53590382.542804867</v>
       </c>
     </row>
@@ -6261,23 +7624,23 @@
         <v>20</v>
       </c>
       <c r="B63" s="4">
-        <f>(1-$K$3)*B62+F62</f>
+        <f t="shared" si="7"/>
         <v>146506303.73951268</v>
       </c>
       <c r="C63" s="4">
+        <f t="shared" si="8"/>
+        <v>9586687.4277889989</v>
+      </c>
+      <c r="D63" s="4">
         <f t="shared" si="6"/>
-        <v>9586687.4277889989</v>
-      </c>
-      <c r="D63" s="4">
-        <f>B63/C63</f>
         <v>15.282265625437397</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147673466.14904416</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59069386.459617667</v>
       </c>
     </row>
@@ -6286,23 +7649,23 @@
         <v>21</v>
       </c>
       <c r="B64" s="4">
-        <f>(1-$K$3)*B63+F63</f>
+        <f t="shared" si="7"/>
         <v>161623799.07727653</v>
       </c>
       <c r="C64" s="4">
+        <f t="shared" si="8"/>
+        <v>10545356.1705679</v>
+      </c>
+      <c r="D64" s="4">
         <f t="shared" si="6"/>
-        <v>10545356.1705679</v>
-      </c>
-      <c r="D64" s="4">
-        <f>B64/C64</f>
         <v>15.326537716039285</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>162722999.97739178</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65089199.990956716</v>
       </c>
     </row>
@@ -6311,23 +7674,23 @@
         <v>22</v>
       </c>
       <c r="B65" s="4">
-        <f>(1-$K$3)*B64+F64</f>
+        <f t="shared" si="7"/>
         <v>178225859.34505028</v>
       </c>
       <c r="C65" s="4">
+        <f t="shared" si="8"/>
+        <v>11599891.787624691</v>
+      </c>
+      <c r="D65" s="4">
         <f t="shared" si="6"/>
-        <v>11599891.787624691</v>
-      </c>
-      <c r="D65" s="4">
-        <f>B65/C65</f>
         <v>15.36444154894531</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>179260771.12659681</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>71704308.450638726</v>
       </c>
     </row>
@@ -6336,23 +7699,23 @@
         <v>23</v>
       </c>
       <c r="B66" s="4">
-        <f>(1-$K$3)*B65+F65</f>
+        <f t="shared" si="7"/>
         <v>196462409.99217391</v>
       </c>
       <c r="C66" s="4">
+        <f t="shared" si="8"/>
+        <v>12759880.96638716</v>
+      </c>
+      <c r="D66" s="4">
         <f t="shared" si="6"/>
-        <v>12759880.96638716</v>
-      </c>
-      <c r="D66" s="4">
-        <f>B66/C66</f>
         <v>15.396884227188867</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>197436563.94110647</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78974625.576442584</v>
       </c>
     </row>
@@ -6361,23 +7724,23 @@
         <v>24</v>
       </c>
       <c r="B67" s="4">
-        <f>(1-$K$3)*B66+F66</f>
+        <f t="shared" si="7"/>
         <v>216498312.57096434</v>
       </c>
       <c r="C67" s="4">
+        <f t="shared" si="8"/>
+        <v>14035869.063025877</v>
+      </c>
+      <c r="D67" s="4">
         <f t="shared" si="6"/>
-        <v>14035869.063025877</v>
-      </c>
-      <c r="D67" s="4">
-        <f>B67/C67</f>
         <v>15.424646069211139</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>217415091.90143973</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>86966036.760575891</v>
       </c>
     </row>
@@ -6386,23 +7749,23 @@
         <v>25</v>
       </c>
       <c r="B68" s="4">
-        <f>(1-$K$3)*B67+F67</f>
+        <f t="shared" si="7"/>
         <v>238514855.56025091</v>
       </c>
       <c r="C68" s="4">
+        <f t="shared" si="8"/>
+        <v>15439455.969328465</v>
+      </c>
+      <c r="D68" s="4">
         <f t="shared" si="6"/>
-        <v>15439455.969328465</v>
-      </c>
-      <c r="D68" s="4">
-        <f>B68/C68</f>
         <v>15.448397665959019</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>239377491.85321483</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95750996.741285935</v>
       </c>
     </row>
@@ -6411,23 +7774,23 @@
         <v>26</v>
       </c>
       <c r="B69" s="4">
-        <f>(1-$K$3)*B68+F68</f>
+        <f t="shared" si="7"/>
         <v>262711395.63346153</v>
       </c>
       <c r="C69" s="4">
+        <f t="shared" si="8"/>
+        <v>16983401.566261314</v>
+      </c>
+      <c r="D69" s="4">
         <f t="shared" si="6"/>
-        <v>16983401.566261314</v>
-      </c>
-      <c r="D69" s="4">
-        <f>B69/C69</f>
         <v>15.468714827738376</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>263522967.90392715</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>105409187.16157086</v>
       </c>
     </row>
@@ -6436,23 +7799,23 @@
         <v>27</v>
       </c>
       <c r="B70" s="4">
-        <f>(1-$K$3)*B69+F69</f>
+        <f t="shared" si="7"/>
         <v>289307164.10499394</v>
       </c>
       <c r="C70" s="4">
+        <f t="shared" si="8"/>
+        <v>18681741.722887445</v>
+      </c>
+      <c r="D70" s="4">
         <f t="shared" si="6"/>
-        <v>18681741.722887445</v>
-      </c>
-      <c r="D70" s="4">
-        <f>B70/C70</f>
         <v>15.486091628734854</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>290070599.8756721</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>116028239.95026885</v>
       </c>
     </row>
@@ -6461,23 +7824,23 @@
         <v>28</v>
       </c>
       <c r="B71" s="4">
-        <f>(1-$K$3)*B70+F70</f>
+        <f t="shared" si="7"/>
         <v>318543254.82376462</v>
       </c>
       <c r="C71" s="4">
+        <f t="shared" si="8"/>
+        <v>20549915.895176191</v>
+      </c>
+      <c r="D71" s="4">
         <f t="shared" si="6"/>
-        <v>20549915.895176191</v>
-      </c>
-      <c r="D71" s="4">
-        <f>B71/C71</f>
         <v>15.500951753215606</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>319261332.70815742</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>127704533.08326298</v>
       </c>
     </row>
@@ -6486,23 +7849,23 @@
         <v>29</v>
       </c>
       <c r="B72" s="4">
-        <f>(1-$K$3)*B71+F71</f>
+        <f t="shared" si="7"/>
         <v>350684811.45989823</v>
       </c>
       <c r="C72" s="4">
+        <f t="shared" si="8"/>
+        <v>22604907.48469381</v>
+      </c>
+      <c r="D72" s="4">
         <f t="shared" si="6"/>
-        <v>22604907.48469381</v>
-      </c>
-      <c r="D72" s="4">
-        <f>B72/C72</f>
         <v>15.513658337126715</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>351360164.85959357</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140544065.94383743</v>
       </c>
     </row>
@@ -6511,23 +7874,23 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <f>(1-$K$3)*B72+F72</f>
+        <f t="shared" si="7"/>
         <v>386023433.96576619</v>
       </c>
       <c r="C73" s="4">
+        <f t="shared" si="8"/>
+        <v>24865398.233163193</v>
+      </c>
+      <c r="D73" s="4">
         <f t="shared" si="6"/>
-        <v>24865398.233163193</v>
-      </c>
-      <c r="D73" s="4">
-        <f>B73/C73</f>
         <v>15.524522484861048</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>386658555.56879145</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>154663422.22751659</v>
       </c>
     </row>
@@ -6563,7 +7926,7 @@
         <v>670000</v>
       </c>
       <c r="D76" s="4">
-        <f>B76/C76</f>
+        <f t="shared" ref="D76:D106" si="11">B76/C76</f>
         <v>19.402985074626866</v>
       </c>
       <c r="E76" s="4">
@@ -6580,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <f>(1-$K$3)*B76+F76</f>
+        <f t="shared" ref="B77:B106" si="12">(1-$K$3)*B76+F76</f>
         <v>13864059.517685845</v>
       </c>
       <c r="C77" s="4">
@@ -6588,7 +7951,7 @@
         <v>737000.00000000012</v>
       </c>
       <c r="D77" s="4">
-        <f>B77/C77</f>
+        <f t="shared" si="11"/>
         <v>18.811478314363423</v>
       </c>
       <c r="E77" s="4">
@@ -6605,23 +7968,23 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <f>(1-$K$3)*B77+F77</f>
+        <f t="shared" si="12"/>
         <v>14848859.781451378</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" ref="C78:C106" si="9">(1+$K$2)*C77</f>
+        <f t="shared" ref="C78:C106" si="13">(1+$K$2)*C77</f>
         <v>810700.00000000023</v>
       </c>
       <c r="D78" s="4">
-        <f>B78/C78</f>
+        <f t="shared" si="11"/>
         <v>18.316096930370513</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" ref="E78:E106" si="10">$K$6*B78^$K$8 * C78 ^$K$7</f>
+        <f t="shared" ref="E78:E106" si="14">$K$6*B78^$K$8 * C78 ^$K$7</f>
         <v>13921344.721783999</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" ref="F78:F106" si="11">$K$4*E78</f>
+        <f t="shared" ref="F78:F106" si="15">$K$4*E78</f>
         <v>5568537.8887136001</v>
       </c>
     </row>
@@ -6630,23 +7993,23 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <f>(1-$K$3)*B78+F78</f>
+        <f t="shared" si="12"/>
         <v>15962739.735729564</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>891770.00000000035</v>
       </c>
       <c r="D79" s="4">
-        <f>B79/C79</f>
+        <f t="shared" si="11"/>
         <v>17.900063621482623</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15103821.960364303</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6041528.7841457212</v>
       </c>
     </row>
@@ -6655,23 +8018,23 @@
         <v>4</v>
       </c>
       <c r="B80" s="4">
-        <f>(1-$K$3)*B79+F79</f>
+        <f t="shared" si="12"/>
         <v>17215446.599156417</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>980947.00000000047</v>
       </c>
       <c r="D80" s="4">
-        <f>B80/C80</f>
+        <f t="shared" si="11"/>
         <v>17.549823384093543</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16418385.484853897</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6567354.1939415596</v>
       </c>
     </row>
@@ -6680,23 +8043,23 @@
         <v>5</v>
       </c>
       <c r="B81" s="4">
-        <f>(1-$K$3)*B80+F80</f>
+        <f t="shared" si="12"/>
         <v>18618166.81335105</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1079041.7000000007</v>
       </c>
       <c r="D81" s="4">
-        <f>B81/C81</f>
+        <f t="shared" si="11"/>
         <v>17.254353389077586</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17877166.969650686</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7150866.7878602743</v>
       </c>
     </row>
@@ -6705,23 +8068,23 @@
         <v>6</v>
       </c>
       <c r="B82" s="4">
-        <f>(1-$K$3)*B81+F81</f>
+        <f t="shared" si="12"/>
         <v>20183583.557206009</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1186945.8700000008</v>
       </c>
       <c r="D82" s="4">
-        <f>B82/C82</f>
+        <f t="shared" si="11"/>
         <v>17.004636915081893</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19493624.060407393</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7797449.6241629571</v>
       </c>
     </row>
@@ -6730,23 +8093,23 @@
         <v>7</v>
       </c>
       <c r="B83" s="4">
-        <f>(1-$K$3)*B82+F82</f>
+        <f t="shared" si="12"/>
         <v>21925958.114207163</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1305640.4570000011</v>
       </c>
       <c r="D83" s="4">
-        <f>B83/C83</f>
+        <f t="shared" si="11"/>
         <v>16.793258815360947</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21282656.828349721</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8513062.7313398886</v>
       </c>
     </row>
@@ -6755,23 +8118,23 @@
         <v>8</v>
       </c>
       <c r="B84" s="4">
-        <f>(1-$K$3)*B83+F83</f>
+        <f t="shared" si="12"/>
         <v>23861233.411284901</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1436204.5027000012</v>
       </c>
       <c r="D84" s="4">
-        <f>B84/C84</f>
+        <f t="shared" si="11"/>
         <v>16.614091772046969</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23260738.649840765</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9304295.4599363059</v>
       </c>
     </row>
@@ -6780,23 +8143,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="4">
-        <f>(1-$K$3)*B84+F84</f>
+        <f t="shared" si="12"/>
         <v>26007158.847835734</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1579824.9529700014</v>
       </c>
       <c r="D85" s="4">
-        <f>B85/C85</f>
+        <f t="shared" si="11"/>
         <v>16.462050937316455</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25446062.440960627</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10178424.976384252</v>
       </c>
     </row>
@@ -6805,23 +8168,23 @@
         <v>10</v>
       </c>
       <c r="B86" s="4">
-        <f>(1-$K$3)*B85+F85</f>
+        <f t="shared" si="12"/>
         <v>28383436.169869266</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1737807.4482670017</v>
       </c>
       <c r="D86" s="4">
-        <f>B86/C86</f>
+        <f t="shared" si="11"/>
         <v>16.332900516782889</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>27858703.365427796</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>11143481.346171118</v>
       </c>
     </row>
@@ -6830,23 +8193,23 @@
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <f>(1-$K$3)*B86+F86</f>
+        <f t="shared" si="12"/>
         <v>31011886.665079605</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1911588.193093702</v>
       </c>
       <c r="D87" s="4">
-        <f>B87/C87</f>
+        <f t="shared" si="11"/>
         <v>16.223100130624978</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>30520799.324132022</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12208319.729652809</v>
       </c>
     </row>
@@ -6855,23 +8218,23 @@
         <v>12</v>
       </c>
       <c r="B88" s="4">
-        <f>(1-$K$3)*B87+F87</f>
+        <f t="shared" si="12"/>
         <v>33916640.39520853</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2102747.0124030723</v>
       </c>
       <c r="D88" s="4">
-        <f>B88/C88</f>
+        <f t="shared" si="11"/>
         <v>16.129681885243883</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>33456750.729053747</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13382700.291621499</v>
       </c>
     </row>
@@ -6880,23 +8243,23 @@
         <v>13</v>
       </c>
       <c r="B89" s="4">
-        <f>(1-$K$3)*B88+F88</f>
+        <f t="shared" si="12"/>
         <v>37124348.568267465</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2313021.71364338</v>
       </c>
       <c r="D89" s="4">
-        <f>B89/C89</f>
+        <f t="shared" si="11"/>
         <v>16.050151345008633</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36693441.266438834</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14677376.506575534</v>
       </c>
     </row>
@@ -6905,23 +8268,23 @@
         <v>14</v>
       </c>
       <c r="B90" s="4">
-        <f>(1-$K$3)*B89+F89</f>
+        <f t="shared" si="12"/>
         <v>40664420.504362755</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2544323.8850077181</v>
       </c>
       <c r="D90" s="4">
-        <f>B90/C90</f>
+        <f t="shared" si="11"/>
         <v>15.982407249318968</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>40260481.566674054</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16104192.626669623</v>
       </c>
     </row>
@@ -6930,23 +8293,23 @@
         <v>15</v>
       </c>
       <c r="B91" s="4">
-        <f>(1-$K$3)*B90+F90</f>
+        <f t="shared" si="12"/>
         <v>44569286.97972355</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2798756.2735084901</v>
       </c>
       <c r="D91" s="4">
-        <f>B91/C91</f>
+        <f t="shared" si="11"/>
         <v>15.924676043281176</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44190477.92421031</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>17676191.169684123</v>
       </c>
     </row>
@@ -6955,23 +8318,23 @@
         <v>16</v>
       </c>
       <c r="B92" s="4">
-        <f>(1-$K$3)*B91+F91</f>
+        <f t="shared" si="12"/>
         <v>48874692.055490606</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3078631.9008593392</v>
       </c>
       <c r="D92" s="4">
-        <f>B92/C92</f>
+        <f t="shared" si="11"/>
         <v>15.875458200068739</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>48519328.452890836</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19407731.381156337</v>
       </c>
     </row>
@@ -6980,23 +8343,23 @@
         <v>17</v>
       </c>
       <c r="B93" s="4">
-        <f>(1-$K$3)*B92+F92</f>
+        <f t="shared" si="12"/>
         <v>53620015.819999754</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3386495.0909452732</v>
       </c>
       <c r="D93" s="4">
-        <f>B93/C93</f>
+        <f t="shared" si="11"/>
         <v>15.833483994519179</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>53286549.323004976</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>21314619.729201991</v>
       </c>
     </row>
@@ -7005,23 +8368,23 @@
         <v>18</v>
       </c>
       <c r="B94" s="4">
-        <f>(1-$K$3)*B93+F93</f>
+        <f t="shared" si="12"/>
         <v>58848630.80320181</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3725144.6000398006</v>
       </c>
       <c r="D94" s="4">
-        <f>B94/C94</f>
+        <f t="shared" si="11"/>
         <v>15.797676901608881</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>58535634.009164825</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23414253.603665933</v>
       </c>
     </row>
@@ -7030,23 +8393,23 @@
         <v>19</v>
       </c>
       <c r="B95" s="4">
-        <f>(1-$K$3)*B94+F94</f>
+        <f t="shared" si="12"/>
         <v>64608295.165907197</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4097659.0600437811</v>
       </c>
       <c r="D95" s="4">
-        <f>B95/C95</f>
+        <f t="shared" si="11"/>
         <v>15.767123184039839</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>64314448.785702311</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25725779.514280926</v>
       </c>
     </row>
@@ -7055,23 +8418,23 @@
         <v>20</v>
       </c>
       <c r="B96" s="4">
-        <f>(1-$K$3)*B95+F95</f>
+        <f t="shared" si="12"/>
         <v>70951586.130415961</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4507424.9660481596</v>
       </c>
       <c r="D96" s="4">
-        <f>B96/C96</f>
+        <f t="shared" si="11"/>
         <v>15.741046532078395</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>70675668.041840941</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>28270267.216736376</v>
       </c>
     </row>
@@ -7080,23 +8443,23 @@
         <v>21</v>
       </c>
       <c r="B97" s="4">
-        <f>(1-$K$3)*B96+F96</f>
+        <f t="shared" si="12"/>
         <v>77936377.508027554</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4958167.4626529757</v>
       </c>
       <c r="D97" s="4">
-        <f>B97/C97</f>
+        <f t="shared" si="11"/>
         <v>15.718786849189236</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>77677253.355733931</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>31070901.342293575</v>
       </c>
     </row>
@@ -7105,23 +8468,23 @@
         <v>22</v>
       </c>
       <c r="B98" s="4">
-        <f>(1-$K$3)*B97+F97</f>
+        <f t="shared" si="12"/>
         <v>85626365.597912863</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5453984.2089182734</v>
       </c>
       <c r="D98" s="4">
-        <f>B98/C98</f>
+        <f t="shared" si="11"/>
         <v>15.69978245589672</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>85382980.668159276</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>34153192.26726371</v>
       </c>
     </row>
@@ -7130,23 +8493,23 @@
         <v>23</v>
       </c>
       <c r="B99" s="4">
-        <f>(1-$K$3)*B98+F98</f>
+        <f t="shared" si="12"/>
         <v>94091648.185802713</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5999382.6298101014</v>
       </c>
       <c r="D99" s="4">
-        <f>B99/C99</f>
+        <f t="shared" si="11"/>
         <v>15.683555124201337</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>93863020.33704184</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>37545208.134816736</v>
       </c>
     </row>
@@ -7155,23 +8518,23 @@
         <v>24</v>
       </c>
       <c r="B100" s="4">
-        <f>(1-$K$3)*B99+F99</f>
+        <f t="shared" si="12"/>
         <v>103409361.86487862</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6599320.892791112</v>
       </c>
       <c r="D100" s="4">
-        <f>B100/C100</f>
+        <f t="shared" si="11"/>
         <v>15.669697465058825</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>103194575.33719546</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>41277830.134878188</v>
       </c>
     </row>
@@ -7180,23 +8543,23 @@
         <v>25</v>
       </c>
       <c r="B101" s="4">
-        <f>(1-$K$3)*B100+F100</f>
+        <f t="shared" si="12"/>
         <v>113664383.44029322</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7259252.9820702234</v>
       </c>
       <c r="D101" s="4">
-        <f>B101/C101</f>
+        <f t="shared" si="11"/>
         <v>15.657862278809569</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>113462583.40025926</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>45385033.360103704</v>
       </c>
     </row>
@@ -7205,23 +8568,23 @@
         <v>26</v>
       </c>
       <c r="B102" s="4">
-        <f>(1-$K$3)*B101+F101</f>
+        <f t="shared" si="12"/>
         <v>124950101.76830897</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7985178.2802772466</v>
       </c>
       <c r="D102" s="4">
-        <f>B102/C102</f>
+        <f t="shared" si="11"/>
         <v>15.64775354821141</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>124760489.47266303</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>49904195.789065212</v>
       </c>
     </row>
@@ -7230,23 +8593,23 @@
         <v>27</v>
       </c>
       <c r="B103" s="4">
-        <f>(1-$K$3)*B102+F102</f>
+        <f t="shared" si="12"/>
         <v>137369267.02688149</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8783696.1083049718</v>
       </c>
       <c r="D103" s="4">
-        <f>B103/C103</f>
+        <f t="shared" si="11"/>
         <v>15.639118809791135</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>137191095.50996372</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54876438.20398549</v>
       </c>
     </row>
@@ -7255,23 +8618,23 @@
         <v>28</v>
       </c>
       <c r="B104" s="4">
-        <f>(1-$K$3)*B103+F103</f>
+        <f t="shared" si="12"/>
         <v>151034925.12280253</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9662065.7191354707</v>
       </c>
       <c r="D104" s="4">
-        <f>B104/C104</f>
+        <f t="shared" si="11"/>
         <v>15.631742684556759</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>150867495.32996324</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>60346998.131985299</v>
       </c>
     </row>
@@ -7280,23 +8643,23 @@
         <v>29</v>
       </c>
       <c r="B105" s="4">
-        <f>(1-$K$3)*B104+F104</f>
+        <f t="shared" si="12"/>
         <v>166071445.71794707</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10628272.291049019</v>
       </c>
       <c r="D105" s="4">
-        <f>B105/C105</f>
+        <f t="shared" si="11"/>
         <v>15.625441385972968</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>165914103.02105945</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>66365641.208423786</v>
       </c>
     </row>
@@ -7305,24 +8668,262 @@
         <v>30</v>
       </c>
       <c r="B106" s="4">
-        <f>(1-$K$3)*B105+F105</f>
+        <f t="shared" si="12"/>
         <v>182615653.21098673</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11691099.520153921</v>
       </c>
       <c r="D106" s="4">
-        <f>B106/C106</f>
+        <f t="shared" si="11"/>
         <v>15.620058053237962</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>182467784.25341886</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>72987113.701367542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C126" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F126" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J126" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="14">
+        <f>(1-B126)*$D$3</f>
+        <v>2361662.079717481</v>
+      </c>
+      <c r="C127" s="14">
+        <f t="shared" ref="C127:J127" si="16">(1-C126)*$D$3</f>
+        <v>2099255.1819710946</v>
+      </c>
+      <c r="D127" s="14">
+        <f t="shared" si="16"/>
+        <v>1836848.2842247074</v>
+      </c>
+      <c r="E127" s="14">
+        <f t="shared" si="16"/>
+        <v>1574441.3864783207</v>
+      </c>
+      <c r="F127" s="14">
+        <f t="shared" si="16"/>
+        <v>1312034.488731934</v>
+      </c>
+      <c r="G127" s="14">
+        <f t="shared" si="16"/>
+        <v>1049627.5909855473</v>
+      </c>
+      <c r="H127" s="14">
+        <f t="shared" si="16"/>
+        <v>787220.69323916046</v>
+      </c>
+      <c r="I127" s="14">
+        <f t="shared" si="16"/>
+        <v>524813.79549277353</v>
+      </c>
+      <c r="J127" s="14">
+        <f t="shared" si="16"/>
+        <v>262406.89774638676</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="14">
+        <f>(1-B126)*$D$4</f>
+        <v>3732124.1557140541</v>
+      </c>
+      <c r="C128" s="14">
+        <f t="shared" ref="C128:J128" si="17">(1-C126)*$D$4</f>
+        <v>3317443.6939680483</v>
+      </c>
+      <c r="D128" s="14">
+        <f t="shared" si="17"/>
+        <v>2902763.2322220416</v>
+      </c>
+      <c r="E128" s="14">
+        <f t="shared" si="17"/>
+        <v>2488082.7704760358</v>
+      </c>
+      <c r="F128" s="14">
+        <f t="shared" si="17"/>
+        <v>2073402.30873003</v>
+      </c>
+      <c r="G128" s="14">
+        <f t="shared" si="17"/>
+        <v>1658721.8469840242</v>
+      </c>
+      <c r="H128" s="14">
+        <f t="shared" si="17"/>
+        <v>1244041.3852380181</v>
+      </c>
+      <c r="I128" s="14">
+        <f t="shared" si="17"/>
+        <v>829360.92349201185</v>
+      </c>
+      <c r="J128" s="14">
+        <f t="shared" si="17"/>
+        <v>414680.46174600592</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="14">
+        <f>(1-B126)*$D$5</f>
+        <v>5387858.4402291728</v>
+      </c>
+      <c r="C129" s="14">
+        <f t="shared" ref="C129:J129" si="18">(1-C126)*$D$5</f>
+        <v>4789207.5024259314</v>
+      </c>
+      <c r="D129" s="14">
+        <f t="shared" si="18"/>
+        <v>4190556.5646226895</v>
+      </c>
+      <c r="E129" s="14">
+        <f t="shared" si="18"/>
+        <v>3591905.6268194485</v>
+      </c>
+      <c r="F129" s="14">
+        <f t="shared" si="18"/>
+        <v>2993254.6890162071</v>
+      </c>
+      <c r="G129" s="14">
+        <f t="shared" si="18"/>
+        <v>2394603.7512129657</v>
+      </c>
+      <c r="H129" s="14">
+        <f t="shared" si="18"/>
+        <v>1795952.8134097245</v>
+      </c>
+      <c r="I129" s="14">
+        <f t="shared" si="18"/>
+        <v>1197301.8756064826</v>
+      </c>
+      <c r="J129" s="14">
+        <f t="shared" si="18"/>
+        <v>598650.93780324131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="14">
+        <f>(1-B126)*$D$6</f>
+        <v>7307931.4116882281</v>
+      </c>
+      <c r="C130" s="14">
+        <f t="shared" ref="C130:J130" si="19">(1-C126)*$D$6</f>
+        <v>6495939.0326117584</v>
+      </c>
+      <c r="D130" s="14">
+        <f t="shared" si="19"/>
+        <v>5683946.6535352878</v>
+      </c>
+      <c r="E130" s="14">
+        <f t="shared" si="19"/>
+        <v>4871954.2744588181</v>
+      </c>
+      <c r="F130" s="14">
+        <f t="shared" si="19"/>
+        <v>4059961.8953823489</v>
+      </c>
+      <c r="G130" s="14">
+        <f t="shared" si="19"/>
+        <v>3247969.5163058792</v>
+      </c>
+      <c r="H130" s="14">
+        <f t="shared" si="19"/>
+        <v>2435977.1372294095</v>
+      </c>
+      <c r="I130" s="14">
+        <f t="shared" si="19"/>
+        <v>1623984.7581529391</v>
+      </c>
+      <c r="J130" s="14">
+        <f t="shared" si="19"/>
+        <v>811992.37907646957</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="14">
+        <f>(1-B126)*$D$7</f>
+        <v>9478592.2091562431</v>
+      </c>
+      <c r="C131" s="14">
+        <f t="shared" ref="C131:J131" si="20">(1-C126)*$D$7</f>
+        <v>8425415.2970277723</v>
+      </c>
+      <c r="D131" s="14">
+        <f t="shared" si="20"/>
+        <v>7372238.3848992996</v>
+      </c>
+      <c r="E131" s="14">
+        <f t="shared" si="20"/>
+        <v>6319061.4727708278</v>
+      </c>
+      <c r="F131" s="14">
+        <f t="shared" si="20"/>
+        <v>5265884.560642357</v>
+      </c>
+      <c r="G131" s="14">
+        <f t="shared" si="20"/>
+        <v>4212707.6485138861</v>
+      </c>
+      <c r="H131" s="14">
+        <f t="shared" si="20"/>
+        <v>3159530.7363854148</v>
+      </c>
+      <c r="I131" s="14">
+        <f t="shared" si="20"/>
+        <v>2106353.8242569421</v>
+      </c>
+      <c r="J131" s="14">
+        <f t="shared" si="20"/>
+        <v>1053176.9121284711</v>
       </c>
     </row>
   </sheetData>
